--- a/biology/Biochimie/3-Désoxyanthocyanidine/3-Désoxyanthocyanidine.xlsx
+++ b/biology/Biochimie/3-Désoxyanthocyanidine/3-Désoxyanthocyanidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3-D%C3%A9soxyanthocyanidine</t>
+          <t>3-Désoxyanthocyanidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 3-désoxyanthocyanidines et leurs hétérosides, les 3-désoxyanthocyanines (3-DA) sont une sous-famille des anthocyanidines, partageant le même squelette de base, mais ne possédant pas de groupe hydroxyle sur le carbone 3. 
-Les 3-désoxyanthocyanidines sont des anthocyanidines jaunes qu'on trouve principalement dans des fougères et des mousses[1], dans le sorgho commun[1],[2] et dans le maïs violet[1] (maíz morado).
-Il a été rapporté que les 3-désoxyanthocyanidines ont une couleur stable malgré le changement pH[3]. Les 3-désoxyanthocyanidines synthétiques avec un groupe carboxylate sur le carbone 4 montrent des propriétés de colorant alimentaire inhabituellement stables à pH 7[1].
-Dans les plantes du genre Sorghum, le gène SbF3'H2 qui code normalement une flavonoïde 3'-hydroxylase semble s'exprimer par la synthèse d'un pathogène spécifique phytoalexine de type 3-désoxyanthocyanidine[4], par exemple dans les interactions Sorghum-Colletotrichum[5].
+Les 3-désoxyanthocyanidines sont des anthocyanidines jaunes qu'on trouve principalement dans des fougères et des mousses, dans le sorgho commun, et dans le maïs violet (maíz morado).
+Il a été rapporté que les 3-désoxyanthocyanidines ont une couleur stable malgré le changement pH. Les 3-désoxyanthocyanidines synthétiques avec un groupe carboxylate sur le carbone 4 montrent des propriétés de colorant alimentaire inhabituellement stables à pH 7.
+Dans les plantes du genre Sorghum, le gène SbF3'H2 qui code normalement une flavonoïde 3'-hydroxylase semble s'exprimer par la synthèse d'un pathogène spécifique phytoalexine de type 3-désoxyanthocyanidine, par exemple dans les interactions Sorghum-Colletotrichum.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3-D%C3%A9soxyanthocyanidine</t>
+          <t>3-Désoxyanthocyanidine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On compte parmi les 3-désoxyanthocyanidines :
 l'apigéninidine
